--- a/biology/Médecine/Amaigrissement/Amaigrissement.xlsx
+++ b/biology/Médecine/Amaigrissement/Amaigrissement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un amaigrissement est une perte de poids. Il témoigne d'un déséquilibre entre les apports et les dépenses énergétiques. Il peut être volontaire, avec un régime amaigrissant dans un but esthétique ou thérapeutique, ou involontaire, pouvant alors révéler certaines maladies organiques évolutives, ou des troubles du comportement alimentaire.
-Un poids normal et stable est l'un des meilleurs marqueurs d'un état de santé normal chez l’adulte. Entre 20 et 50 ans, le poids augmente physiologiquement puis se stabilise pour diminuer spontanément après 75 ans[1]. La masse grasse augmente quant à elle tout au long de l’âge adulte[1]. 
+Un poids normal et stable est l'un des meilleurs marqueurs d'un état de santé normal chez l’adulte. Entre 20 et 50 ans, le poids augmente physiologiquement puis se stabilise pour diminuer spontanément après 75 ans. La masse grasse augmente quant à elle tout au long de l’âge adulte. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les principales causes d'amaigrissement sont[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les principales causes d'amaigrissement sont :
 les troubles du comportement alimentaire : l'anorexie mentale et ses autres formes ;
 l'amaigrissement avec alimentation conservée et hypercatabolisme :
 affections endocriniennes ou métaboliques : hyperthyroïdie, diabète, hyperparathyroïdie primaire, phéochromocytome,
@@ -553,13 +567,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime alimentaire et exercice physique
-Les méthodes de perte de poids les moins intrusives et les plus couramment recommandées sont les changements de régime alimentaire et l'augmentation de l'activité physique, généralement sous la forme d'exercices[2]. L'Organisation mondiale de la santé recommande de combiner une réduction des aliments transformés riches en graisses saturées, en sucre et en sel[3] et la réduction de l'apport calorique par l'augmentation de l'activité physique. Les programmes d'exercices à long terme et les médicaments contre l'obésité réduisent tous deux la graisse abdominale[4]. L'autosurveillance de l'alimentation, de l'exercice physique et du poids sont des stratégies utiles pour perdre du poids[5],[6], en particulier dans les premières phases des programmes de perte de poids. Les recherches suggèrent que les personnes qui consignent leur alimentation environ trois fois par jour et environ 20 fois par mois ont plus de chances de parvenir à une perte de poids cliniquement significative[7].
-Une perte de poids rapide entraîne généralement une prise de poids rapide si le processus de perte de poids n'est pas durable au départ[8].
-Médicaments
-D'autres méthodes de perte de poids comprennent l'utilisation de médicaments contre l'obésité qui réduisent l'appétit, bloquent l'absorption des graisses ou réduisent le volume de l'estomac. L'obésité résiste aux traitements médicamenteux, une revue de 2021 indiquant que les médicaments existants "sont souvent d'une efficacité insuffisante et d'une sécurité douteuse"[9].
-Chirurgie bariatrique
-La chirurgie bariatrique peut être indiquée dans les cas d'obésité sévère. Les deux procédures chirurgicales bariatriques les plus courantes sont le pontage gastrique et l'anneau gastrique[10].
+          <t>Régime alimentaire et exercice physique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les méthodes de perte de poids les moins intrusives et les plus couramment recommandées sont les changements de régime alimentaire et l'augmentation de l'activité physique, généralement sous la forme d'exercices. L'Organisation mondiale de la santé recommande de combiner une réduction des aliments transformés riches en graisses saturées, en sucre et en sel et la réduction de l'apport calorique par l'augmentation de l'activité physique. Les programmes d'exercices à long terme et les médicaments contre l'obésité réduisent tous deux la graisse abdominale. L'autosurveillance de l'alimentation, de l'exercice physique et du poids sont des stratégies utiles pour perdre du poids en particulier dans les premières phases des programmes de perte de poids. Les recherches suggèrent que les personnes qui consignent leur alimentation environ trois fois par jour et environ 20 fois par mois ont plus de chances de parvenir à une perte de poids cliniquement significative.
+Une perte de poids rapide entraîne généralement une prise de poids rapide si le processus de perte de poids n'est pas durable au départ.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amaigrissement</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amaigrissement</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Méthodes de perte de poids</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médicaments</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'autres méthodes de perte de poids comprennent l'utilisation de médicaments contre l'obésité qui réduisent l'appétit, bloquent l'absorption des graisses ou réduisent le volume de l'estomac. L'obésité résiste aux traitements médicamenteux, une revue de 2021 indiquant que les médicaments existants "sont souvent d'une efficacité insuffisante et d'une sécurité douteuse".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amaigrissement</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amaigrissement</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Méthodes de perte de poids</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chirurgie bariatrique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chirurgie bariatrique peut être indiquée dans les cas d'obésité sévère. Les deux procédures chirurgicales bariatriques les plus courantes sont le pontage gastrique et l'anneau gastrique.
 </t>
         </is>
       </c>
